--- a/static/output/Excel/LRamounts-sol.xlsx
+++ b/static/output/Excel/LRamounts-sol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BE5C9E-C2F4-3D4B-B03B-F1FDBC4AC2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C6AEB7-7A15-C44C-A9D5-1C1EA614E608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="26120" windowHeight="20980" activeTab="3" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="26120" windowHeight="20980" activeTab="2" xr2:uid="{3C278192-D9A7-1649-8892-23655AFBF6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="WPI" sheetId="3" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>forecast</t>
   </si>
   <si>
-    <t>Outsanding</t>
-  </si>
-  <si>
     <t>liabilities</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   <si>
     <t xml:space="preserve"> v</t>
   </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
 </sst>
 </file>
 
@@ -140,10 +140,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -210,7 +210,7 @@
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -219,15 +219,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2292,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C59E9E-57A6-C84D-80FB-E1089F2BA07E}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -4424,10 +4424,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="14">
         <v>0.04</v>
@@ -4965,7 +4965,7 @@
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
       <c r="F107" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G107" s="16"/>
     </row>
@@ -4980,13 +4980,13 @@
         <v>18</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5000,13 +5000,13 @@
         <v>19</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -5524,8 +5524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE60E96-7E9F-8147-B8EF-C1FAB6D33EAF}">
   <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5538,7 +5538,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6385,13 +6385,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -7656,10 +7656,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="14">
         <v>0.04</v>
@@ -8198,7 +8198,7 @@
       <c r="E107" s="16"/>
       <c r="F107" s="16"/>
       <c r="G107" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H107" s="16"/>
     </row>
@@ -8207,7 +8207,7 @@
         <v>13</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>16</v>
@@ -8216,13 +8216,13 @@
         <v>18</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -8239,13 +8239,13 @@
         <v>19</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -8545,7 +8545,7 @@
         <v>131909.37131103192</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
